--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -130,12 +130,12 @@
     <t>well</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>relief</t>
@@ -1591,25 +1591,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6939655172413793</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="L25">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="M25">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1617,25 +1617,25 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6737588652482269</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L26">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M26">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1721,25 +1721,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.6036585365853658</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1747,13 +1747,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="10:17">
